--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Burundi/Pandémie_de_Covid-19_au_Burundi.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Burundi/Pandémie_de_Covid-19_au_Burundi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Burundi</t>
+          <t>Pandémie_de_Covid-19_au_Burundi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Burundi démarre officiellement le 31 mars 2020. À la date du 14 janvier 2024, le bilan est de 38 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Burundi</t>
+          <t>Pandémie_de_Covid-19_au_Burundi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,44 +524,46 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux premiers cas officiellement reconnus de Covid-19 dans le pays sont annoncés le 31 mars 2020, il s'agit de deux burundais revenant respectivement du Rwanda et de Dubaï.
 Le 2 avril, un autre cas positif est confirmé, une femme de 26 ans, tandis que 22 autres personnes sont testées négatives.
-En avril, il y avait 13 cas confirmés, dont un décès (au 12 avril)[3].
+En avril, il y avait 13 cas confirmés, dont un décès (au 12 avril).
 En mai, il y avait 48 cas confirmés, portant le nombre total dès le début à 63.
 Le 15 mai les représentants de l'Organisation mondiale de la santé (OMS) sont expulsés, le gouvernement leur reprochant leur « immixtion » dans sa gestion de la pandémie du Covid-19.
-En juin, il y avait 107 cas confirmés, portant le nombre total à 170[4].
-En juillet, il y avait 217 cas confirmés, portant le nombre total à 387[5].
-En août, il y avait 58 cas confirmés, portant le nombre total à 445[6].
-En septembre, il y avait 63 cas confirmés, portant le nombre total à 508[7].
-En octobre, il y avait 81 cas confirmés, portant le nombre total à 589[8].
-En novembre, il y avait 99 cas confirmés, portant le nombre cumulé de cas à 688[9].
-En décembre 2020, selon l'OMS, il y a 818 cas cumulés et un mort[10].
-En janvier 2021 il y avait 814 nouveaux cas, portant le nombre de cas à 1 632 dont deux décès[11].
-En février 2021, il y avait 377 nouveaux cas et un décès, portant le nombre de cas à 2 209 dont trois décès[12].
-En mars 2021, il y avait 633 nouveaux cas et trois décès, portant le nombre de cas à 2 842 dont six décès[13].
-En avril 2021, il y avait 1 204 nouveaux cas, portant le nombre de cas à 4 046 dont six décès[14].
-En mai 2021, il y avait 744 nouveaux cas, portant le nombre de cas à 4 790 dont six décès[15].
-En juin 2021, il y avait 704 nouveaux cas et deux décès, portant le nombre de cas à 5 494 dont huit décès[16].
-En juillet 2021, il y avait 2 011 nouveaux cas et un décès, portant le nombre de cas à 7 505 dont neuf décès[17].
-En août 2021, il y avait 4 885 nouveaux cas et un décès, portant le nombre de cas à 12 390 dont dix décès[18].
-En septembre 2021, il y avait 5 881 nouveaux cas et quatre décès, portant le nombre de cas à 18 271 dont 14 décès[19].
-En octobre 2021, il y avait 1 807 nouveaux cas, portant le nombre de cas à 20 078 dont 14 décès[20].
-En novembre 2021, il y avait 337 nouveaux cas, portant le nombre de cas à 20 415 dont 14 décès[21].
-En décembre 2021, il y avait 11 200 nouveaux cas, portant le nombre de cas à 31 615 dont 14 décès[22].
-En janvier 2022, il y avait 5 854 nouveaux cas et un décès, portant le nombre de cas à 37 469 dont 15 décès[23].
-En février 2022, il y avait 658 nouveaux cas portant le nombre de cas à 38 127 dont 15 décès[24].
-En mars 2022, il y avait 448 nouveaux cas portant le nombre de cas à 38 575 dont 15 décès[25].
-En avril 2022, il y avait 1 423 nouveaux cas portant le nombre de cas à 39 998 dont 15 décès[26].
-En mai 2022, il y avait 2 036 nouveaux cas portant le nombre de cas à 42 034 dont 15 décès[27].
-En juin 2022, il y avait 697 nouveaux cas portant le nombre de cas à 42 731 dont 15 décès[28].
-En juillet 2022, il y avait 3 544 nouveaux cas portant le nombre de cas à 46 275 dont 15 décès[29].
-En août 2022, il y avait 3 095 nouveaux cas portant le nombre de cas à 49 370 dont 15 décès[30].
-En septembre 2022, il y avait 823 nouveaux cas portant le nombre de cas à 50 193 dont 15 décès[31].
-En octobre 2022, il y avait 1 147 nouveaux cas portant le nombre de cas à 50 517 dont 15 décès[32].
-En novembre 2022, il y avait 501 nouveaux cas portant le nombre de cas à 51 018 dont 15 décès[33].
-En décembre 2022, il y avait 1 144 nouveaux cas portant le nombre de cas à 52 162 dont 15 décès[34].
+En juin, il y avait 107 cas confirmés, portant le nombre total à 170.
+En juillet, il y avait 217 cas confirmés, portant le nombre total à 387.
+En août, il y avait 58 cas confirmés, portant le nombre total à 445.
+En septembre, il y avait 63 cas confirmés, portant le nombre total à 508.
+En octobre, il y avait 81 cas confirmés, portant le nombre total à 589.
+En novembre, il y avait 99 cas confirmés, portant le nombre cumulé de cas à 688.
+En décembre 2020, selon l'OMS, il y a 818 cas cumulés et un mort.
+En janvier 2021 il y avait 814 nouveaux cas, portant le nombre de cas à 1 632 dont deux décès.
+En février 2021, il y avait 377 nouveaux cas et un décès, portant le nombre de cas à 2 209 dont trois décès.
+En mars 2021, il y avait 633 nouveaux cas et trois décès, portant le nombre de cas à 2 842 dont six décès.
+En avril 2021, il y avait 1 204 nouveaux cas, portant le nombre de cas à 4 046 dont six décès.
+En mai 2021, il y avait 744 nouveaux cas, portant le nombre de cas à 4 790 dont six décès.
+En juin 2021, il y avait 704 nouveaux cas et deux décès, portant le nombre de cas à 5 494 dont huit décès.
+En juillet 2021, il y avait 2 011 nouveaux cas et un décès, portant le nombre de cas à 7 505 dont neuf décès.
+En août 2021, il y avait 4 885 nouveaux cas et un décès, portant le nombre de cas à 12 390 dont dix décès.
+En septembre 2021, il y avait 5 881 nouveaux cas et quatre décès, portant le nombre de cas à 18 271 dont 14 décès.
+En octobre 2021, il y avait 1 807 nouveaux cas, portant le nombre de cas à 20 078 dont 14 décès.
+En novembre 2021, il y avait 337 nouveaux cas, portant le nombre de cas à 20 415 dont 14 décès.
+En décembre 2021, il y avait 11 200 nouveaux cas, portant le nombre de cas à 31 615 dont 14 décès.
+En janvier 2022, il y avait 5 854 nouveaux cas et un décès, portant le nombre de cas à 37 469 dont 15 décès.
+En février 2022, il y avait 658 nouveaux cas portant le nombre de cas à 38 127 dont 15 décès.
+En mars 2022, il y avait 448 nouveaux cas portant le nombre de cas à 38 575 dont 15 décès.
+En avril 2022, il y avait 1 423 nouveaux cas portant le nombre de cas à 39 998 dont 15 décès.
+En mai 2022, il y avait 2 036 nouveaux cas portant le nombre de cas à 42 034 dont 15 décès.
+En juin 2022, il y avait 697 nouveaux cas portant le nombre de cas à 42 731 dont 15 décès.
+En juillet 2022, il y avait 3 544 nouveaux cas portant le nombre de cas à 46 275 dont 15 décès.
+En août 2022, il y avait 3 095 nouveaux cas portant le nombre de cas à 49 370 dont 15 décès.
+En septembre 2022, il y avait 823 nouveaux cas portant le nombre de cas à 50 193 dont 15 décès.
+En octobre 2022, il y avait 1 147 nouveaux cas portant le nombre de cas à 50 517 dont 15 décès.
+En novembre 2022, il y avait 501 nouveaux cas portant le nombre de cas à 51 018 dont 15 décès.
+En décembre 2022, il y avait 1 144 nouveaux cas portant le nombre de cas à 52 162 dont 15 décès.
 En 2023 il y avait 2 310 nouveaux cas portant le nombre de cas à 54 472 dont 15 décès.
 </t>
         </is>
@@ -561,7 +575,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Burundi</t>
+          <t>Pandémie_de_Covid-19_au_Burundi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +593,9 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 12 mars, le gouvernement a institué une quarantaine de 14 jours pour les personnes entrant au Burundi en provenance des pays touchés.
 </t>
@@ -592,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Burundi</t>
+          <t>Pandémie_de_Covid-19_au_Burundi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,6 +627,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Burundi</t>
+          <t>Pandémie_de_Covid-19_au_Burundi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,7 +654,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
